--- a/1-resistome_analysis/6-analysis_and_figures/7-args_gbp.xlsx
+++ b/1-resistome_analysis/6-analysis_and_figures/7-args_gbp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennaswarthout/Box/Github/arg_bd/1-resistome_analysis/3-analysis_and_figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennaswarthout/Box/Pickering_projects/Pickering_arg_bd/analysis/2_amr_alignment/1_abundance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A59E185-E393-D843-BBDE-4EE507B5C958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBAC4269-C9F0-044E-8F5B-05023A00BF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="19160" windowHeight="21140" xr2:uid="{42303017-D9A9-B843-8933-CE625724E786}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" xr2:uid="{42303017-D9A9-B843-8933-CE625724E786}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,7 @@
         <v>27</v>
       </c>
       <c r="D2">
-        <v>766.36879999999996</v>
+        <v>253.77940000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -527,7 +527,7 @@
         <v>27</v>
       </c>
       <c r="D3">
-        <v>1920.597</v>
+        <v>561.06989999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,7 +541,7 @@
         <v>27</v>
       </c>
       <c r="D4">
-        <v>1303.9480000000001</v>
+        <v>505.22019999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -555,7 +555,7 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>578.8895</v>
+        <v>211.1885</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>70.306780000000003</v>
+        <v>40.902760000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>26.71518</v>
+        <v>14.15629</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,7 +597,7 @@
         <v>28</v>
       </c>
       <c r="D8">
-        <v>28.093810000000001</v>
+        <v>18.24597</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>29</v>
       </c>
       <c r="D9">
-        <v>811.70759999999996</v>
+        <v>530.83280000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>955.93219999999997</v>
+        <v>643.14260000000002</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>716.93240000000003</v>
+        <v>480.61599999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>575.14499999999998</v>
+        <v>400.33109999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>2887.337</v>
+        <v>1066.8579999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,7 +681,7 @@
         <v>27</v>
       </c>
       <c r="D14">
-        <v>2810.3530000000001</v>
+        <v>910.00630000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>754.1028</v>
+        <v>345.45740000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="D16">
-        <v>1018.914</v>
+        <v>359.35210000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <v>290.06139999999999</v>
+        <v>121.2636</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>28</v>
       </c>
       <c r="D18">
-        <v>81.017679999999999</v>
+        <v>63.76155</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>28</v>
       </c>
       <c r="D19">
-        <v>298.19299999999998</v>
+        <v>145.90289999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>99.579700000000003</v>
+        <v>75.303120000000007</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>1179.144</v>
+        <v>686.90449999999998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>984.74850000000004</v>
+        <v>609.88779999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>873.81579999999997</v>
+        <v>536.53579999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="D24">
-        <v>757.57470000000001</v>
+        <v>474.3272</v>
       </c>
     </row>
   </sheetData>
